--- a/trend_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
+++ b/trend_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.09045971579075381</v>
+        <v>0.909540284209246</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.722553649930051</v>
+        <v>0.277446350069949</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.624630438592628</v>
+        <v>0.375369561407372</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9616922897988091</v>
+        <v>0.0383077102011909</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.40324797025367</v>
+        <v>0.0007591615022673</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.282</v>
+        <v>31.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0285120347043702</v>
+        <v>1.9199092988351</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.147782138340038</v>
+        <v>0.376523571213848</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0346647832024857</v>
+        <v>5.01717032967033</v>
       </c>
       <c r="N30" t="n">
-        <v>-10.1106506043866</v>
+        <v>6.09495015503208</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3212,19 +3216,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88</v>
+        <v>0.282</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.28403674945547</v>
+        <v>-0.0285120347043702</v>
       </c>
       <c r="L31" t="n">
-        <v>-14.5476179829953</v>
+        <v>-0.147782138340038</v>
       </c>
       <c r="M31" t="n">
-        <v>8.13719448712088</v>
+        <v>0.0346647832024857</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.45913266983576</v>
+        <v>-10.1106506043866</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3272,7 +3276,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3287,7 +3291,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3299,19 +3303,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.063</v>
+        <v>88</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0336987811634349</v>
+        <v>-1.28403674945547</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.7107720362883</v>
+        <v>-14.5476179829953</v>
       </c>
       <c r="M32" t="n">
-        <v>0.981049459737056</v>
+        <v>8.13719448712088</v>
       </c>
       <c r="N32" t="n">
-        <v>1.10018874186859</v>
+        <v>-1.45913266983576</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3359,11 +3363,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3374,7 +3378,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.377227088747045</v>
+        <v>0.5</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3386,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.282</v>
+        <v>3.063</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0071524701607586</v>
+        <v>0.0336987811634349</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0391800081165123</v>
+        <v>-1.7107720362883</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0189871892273215</v>
+        <v>0.981049459737056</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.53633693643922</v>
+        <v>1.10018874186859</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3446,7 +3450,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3461,31 +3465,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.326711047377659</v>
+        <v>0.377227088747045</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.23</v>
+        <v>0.282</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.521785714285716</v>
+        <v>-0.0071524701607586</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.00746305360083</v>
+        <v>-0.0391800081165123</v>
       </c>
       <c r="M34" t="n">
-        <v>1.53797773408981</v>
+        <v>0.0189871892273215</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.591392626414729</v>
+        <v>-2.53633693643922</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3533,7 +3537,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3548,31 +3552,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.377227088747045</v>
+        <v>0.326711047377659</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.37</v>
+        <v>88.23</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0569256392755226</v>
+        <v>-0.521785714285716</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.444483708892048</v>
+        <v>-3.00746305360083</v>
       </c>
       <c r="M35" t="n">
-        <v>0.262214050480138</v>
+        <v>1.53797773408981</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.68918810906595</v>
+        <v>-0.591392626414729</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3585,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3611,6 +3615,93 @@
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.377227088747045</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0569256392755226</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.444483708892048</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.262214050480138</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.68918810906595</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
+++ b/trend_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.260125136700593</v>
+        <v>0.76743810558989</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="H2" t="n">
-        <v>0.833333333333333</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>92.5</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>5.27600815384615</v>
+        <v>-3.69188005390836</v>
       </c>
       <c r="L2" t="n">
-        <v>-18.5689622219876</v>
+        <v>-27.4017434292225</v>
       </c>
       <c r="M2" t="n">
-        <v>29.2315329299353</v>
+        <v>11.7224475917984</v>
       </c>
       <c r="N2" t="n">
-        <v>5.7037925987526</v>
+        <v>-4.61485006738544</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.541229489097423</v>
+        <v>0.027215799126902</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0204081632653061</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="H3" t="n">
-        <v>0.857142857142857</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0014113618799553</v>
+        <v>-0.0745408163265306</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06567206265490121</v>
+        <v>-0.193255669215997</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0592726877095054</v>
+        <v>-0.0068817263723528</v>
       </c>
       <c r="N3" t="n">
-        <v>0.441050587486046</v>
+        <v>-24.0454246214615</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.909540284209246</v>
+        <v>0.229886323274283</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.844827586206897</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.25</v>
+        <v>10.205</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0825276584482397</v>
+        <v>-0.063532076945611</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0413607399161287</v>
+        <v>-0.14093682344013</v>
       </c>
       <c r="M4" t="n">
-        <v>0.150539821023293</v>
+        <v>0.0468558396653261</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8051478872998989</v>
+        <v>-0.622558323817844</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,17 +842,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.587685277544655</v>
+        <v>0.0512557359076358</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.603448275862069</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.0225</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0014595404595404</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0019146713822397</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0014655442260191</v>
+        <v>0.0028947225729895</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.48684648684648</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.558672538055454</v>
+        <v>0.755207548230012</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0517241379310345</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.862068965517241</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>-6.68956043956044</v>
+        <v>-20.6745283018868</v>
       </c>
       <c r="L6" t="n">
-        <v>-92.45346837648189</v>
+        <v>-80.95529600041679</v>
       </c>
       <c r="M6" t="n">
-        <v>70.5131435373672</v>
+        <v>41.1303679799655</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.43861514829257</v>
+        <v>-5.1686320754717</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.923395051455574</v>
+        <v>0.963312929138062</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.17041746009789</v>
+        <v>0.159416300451701</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0161354089900342</v>
+        <v>-0.0204001581260582</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0400494260759717</v>
+        <v>-0.0405133473198566</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0025678997982196</v>
+        <v>-0.0006417938648297</v>
       </c>
       <c r="N7" t="n">
-        <v>-9.468166572114059</v>
+        <v>-12.7967830568486</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.979278334873896</v>
+        <v>0.971450263277998</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.431034482758621</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.000666825610695</v>
+        <v>-0.0007442214554158</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.001003434065934</v>
+        <v>-0.0010193101533248</v>
       </c>
       <c r="M8" t="n">
-        <v>-2.74522263148478e-05</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-7.40917345216708</v>
+        <v>-8.26912728239849</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0162620906326638</v>
+        <v>0.007491446845039</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3215</v>
+        <v>0.364</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0413725717633526</v>
+        <v>0.0498228905023548</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0108812991448607</v>
+        <v>0.0205446278780751</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0586690990896039</v>
+        <v>0.066283277609322</v>
       </c>
       <c r="N9" t="n">
-        <v>12.8686070803585</v>
+        <v>13.6876072808667</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.277446350069949</v>
+        <v>0.232248729237568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.844827586206897</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.705</v>
+        <v>7.725</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0159323882224646</v>
+        <v>-0.0163058035714287</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0509162578826277</v>
+        <v>-0.0483635342490734</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0274897617175839</v>
+        <v>0.0200686813186809</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.206779860122837</v>
+        <v>-0.21107836338419</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.77781215644626</v>
+        <v>0.722866081837841</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.913793103448276</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6525</v>
+        <v>0.6885</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0111811224489796</v>
+        <v>-0.008917310284055501</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0456713649333073</v>
+        <v>-0.0461109137939611</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0182777773745679</v>
+        <v>0.0160953417815264</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.71358198451794</v>
+        <v>-1.29517941671105</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.848047835754286</v>
+        <v>0.229886323274283</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.620689655172414</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.5</v>
+        <v>0.925</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.18587662337662</v>
+        <v>0.028429383042483</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.98313910134376</v>
+        <v>-0.0204887312483568</v>
       </c>
       <c r="M12" t="n">
-        <v>0.69128055288926</v>
+        <v>0.0804669338474672</v>
       </c>
       <c r="N12" t="n">
-        <v>-8.784271284271281</v>
+        <v>3.07344681540357</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.947094968628326</v>
+        <v>0.0930677555442502</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.758620689655172</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.92</v>
+        <v>0.064</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0401373626373627</v>
+        <v>0.0048059210526315</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0806021281830312</v>
+        <v>-0.001034700169688</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0126676111033566</v>
       </c>
       <c r="N13" t="n">
-        <v>-4.36275680840899</v>
+        <v>7.50925164473684</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.697310765494083</v>
+        <v>0.007491446845039</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.810344827586207</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.067</v>
+        <v>7.815</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0020583907326236</v>
+        <v>1.88914038986491</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0113888993477946</v>
+        <v>0.387936629970858</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0048501494561308</v>
+        <v>4.96910589230823</v>
       </c>
       <c r="N14" t="n">
-        <v>-3.07222497406518</v>
+        <v>24.173261546576</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.932670805843389</v>
+        <v>0.149672001113836</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0147058823529412</v>
       </c>
       <c r="H15" t="n">
-        <v>0.948275862068966</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>10.64</v>
+        <v>41.75</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.652232142857143</v>
+        <v>1.62714621506022</v>
       </c>
       <c r="L15" t="n">
-        <v>-5.01784481572214</v>
+        <v>-0.662252030060468</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06354809161424629</v>
+        <v>6.95728151546622</v>
       </c>
       <c r="N15" t="n">
-        <v>-6.13000134264232</v>
+        <v>3.89735620373704</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.000668197026762</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.657142857142857</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.461947982287718</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.826666666666667</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>55</v>
+        <v>0.47</v>
       </c>
       <c r="K16" t="n">
-        <v>0.112998180163785</v>
+        <v>-0.0724322955622039</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.77832732134384</v>
+        <v>-0.118774821585707</v>
       </c>
       <c r="M16" t="n">
-        <v>5.27589789484054</v>
+        <v>-0.0313348199035244</v>
       </c>
       <c r="N16" t="n">
-        <v>0.205451236661428</v>
+        <v>-15.4111267153625</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5.62965499969481e-05</v>
+        <v>0.316860036138082</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0462962962962963</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.675925925925926</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.775</v>
+        <v>10.18</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.114980212122603</v>
+        <v>-0.0062038800240853</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.168329449011213</v>
+        <v>-0.0454151751069502</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0593491246349695</v>
+        <v>0.0224233254903332</v>
       </c>
       <c r="N17" t="n">
-        <v>-14.8361564029165</v>
+        <v>-0.0609418469949447</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.375369561407372</v>
+        <v>0.153452181880059</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8050847457627121</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.24</v>
+        <v>0.023</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.004137645024092</v>
+        <v>0.000366594178655</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.06269585767175261</v>
+        <v>-0.0002517478416266</v>
       </c>
       <c r="M18" t="n">
-        <v>0.034276716653335</v>
+        <v>0.0010227678874832</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0404066896883992</v>
+        <v>1.59388773328291</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0562270202227801</v>
+        <v>0.0214979684495106</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H19" t="n">
-        <v>0.389830508474576</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.021</v>
+        <v>302</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0005929383116882999</v>
+        <v>21.2221762714473</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2.89257621099986</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0012173460530083</v>
+        <v>44.5970695970696</v>
       </c>
       <c r="N19" t="n">
-        <v>2.82351576994434</v>
+        <v>7.02721068590969</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,14 +2192,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.0005244493909011</v>
+        <v>0.27616017507285</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0256410256410256</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7692307692307691</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>302</v>
+        <v>0.120891597430493</v>
       </c>
       <c r="K20" t="n">
-        <v>32.9520300230375</v>
+        <v>0.0012593723156451</v>
       </c>
       <c r="L20" t="n">
-        <v>15.810370024545</v>
+        <v>-0.0032183189814924</v>
       </c>
       <c r="M20" t="n">
-        <v>56.7158385093168</v>
+        <v>0.0064336544861718</v>
       </c>
       <c r="N20" t="n">
-        <v>10.9112682195488</v>
+        <v>1.04173684723558</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.229112955701127</v>
+        <v>0.869373349546922</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0.279661016949153</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.123548773274711</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0026079906036351</v>
+        <v>-0.0001664392477041</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0032792893223477</v>
+        <v>-0.0004796983534588</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0094029165360468</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.11089963462148</v>
+        <v>-1.84932497449031</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2385,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.764943000319606</v>
+        <v>0.457923521470797</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.271186440677966</v>
+        <v>0.974576271186441</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01</v>
+        <v>0.4225</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0005975408775709999</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0003998357963875</v>
+        <v>-0.0076908014146416</v>
       </c>
       <c r="M22" t="n">
-        <v>8.26705055060619e-05</v>
+        <v>0.009747321261131699</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.141429793507934</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,46 +2465,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.336269634092167</v>
+        <v>0.465695962789601</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.974576271186441</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3916</v>
+        <v>7.685</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0018774059982932</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0057734517810371</v>
+        <v>-0.012482911825017</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0096676703554092</v>
+        <v>0.0100803757152174</v>
       </c>
       <c r="N23" t="n">
-        <v>0.479419304977851</v>
+        <v>0</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0383077102011909</v>
+        <v>0.254419832160069</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.567796610169492</v>
+        <v>0.855932203389831</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.695</v>
+        <v>0.679</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0133791208791206</v>
+        <v>0.0066059409340659</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0249559551302283</v>
+        <v>-0.0080134484138185</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0151362241675709</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.173867717727363</v>
+        <v>0.972892626519284</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.08462421611715409</v>
+        <v>0.0362211251010959</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.864406779661017</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.65</v>
+        <v>0.951</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0107520365832376</v>
+        <v>0.0149319023787859</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0017041296658973</v>
+        <v>0.0025069893219047</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0201274205450991</v>
+        <v>0.0250858516483517</v>
       </c>
       <c r="N25" t="n">
-        <v>1.65415947434424</v>
+        <v>1.57012643310052</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0109789816741868</v>
+        <v>0.0142061777115826</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0338983050847458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.474576271186441</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>0.062</v>
       </c>
       <c r="K26" t="n">
-        <v>0.666825610695037</v>
+        <v>0.0023717532467532</v>
       </c>
       <c r="L26" t="n">
-        <v>0.142607524718081</v>
+        <v>0.0005580001014496</v>
       </c>
       <c r="M26" t="n">
-        <v>1.67101754019942</v>
+        <v>0.004565625</v>
       </c>
       <c r="N26" t="n">
-        <v>7.40917345216708</v>
+        <v>3.82540846250524</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0285858954565101</v>
+        <v>0.00129983500763</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.686440677966102</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.92</v>
+        <v>6.55</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0130959830730458</v>
+        <v>0.615020015418892</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0029311076150274</v>
+        <v>0.1008233072623</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0235251394100206</v>
+        <v>1.67540548756156</v>
       </c>
       <c r="N27" t="n">
-        <v>1.42347642098324</v>
+        <v>9.38961855601362</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0022509656505699</v>
+        <v>0.0086270088930403</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0082644628099173</v>
       </c>
       <c r="H28" t="n">
-        <v>0.627118644067797</v>
+        <v>0.768595041322314</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0575</v>
+        <v>24.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0028572359843546</v>
+        <v>1.04190438156093</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0011936072574446</v>
+        <v>0.0996679322467182</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0049173657103368</v>
+        <v>3.93017759452912</v>
       </c>
       <c r="N28" t="n">
-        <v>4.96910605974718</v>
+        <v>4.25267094514666</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0285858954565101</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.957627118644068</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.245</v>
+        <v>0.328</v>
       </c>
       <c r="K29" t="n">
-        <v>0.273583346800259</v>
+        <v>-0.0055223284945507</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0137156060040426</v>
+        <v>-0.147782138340038</v>
       </c>
       <c r="M29" t="n">
-        <v>0.883725829655587</v>
+        <v>0.0795742630136634</v>
       </c>
       <c r="N29" t="n">
-        <v>4.38083821937964</v>
+        <v>-1.68363673614351</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3084,11 +3084,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3098,46 +3094,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0007591615022673</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.76271186440678</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>31.5</v>
+        <v>83.64</v>
       </c>
       <c r="K30" t="n">
-        <v>1.9199092988351</v>
+        <v>-0.397815955632363</v>
       </c>
       <c r="L30" t="n">
-        <v>0.376523571213848</v>
+        <v>-15.6995197460117</v>
       </c>
       <c r="M30" t="n">
-        <v>5.01717032967033</v>
+        <v>9.73421210558188</v>
       </c>
       <c r="N30" t="n">
-        <v>6.09495015503208</v>
+        <v>-0.475628832654666</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3142,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,11 +3171,7 @@
           <t>Mana_11a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>mg/m2</t>
-        </is>
-      </c>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3189,7 +3181,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3204,7 +3196,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.40324797025367</v>
+        <v>0.5</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3216,19 +3208,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.282</v>
+        <v>4.6</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0285120347043702</v>
+        <v>0.143945159764258</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.147782138340038</v>
+        <v>-1.7107720362883</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0346647832024857</v>
+        <v>1.22061532207977</v>
       </c>
       <c r="N31" t="n">
-        <v>-10.1106506043866</v>
+        <v>3.12924260357083</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3276,11 +3268,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3291,7 +3283,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.40324797025367</v>
+        <v>0.5</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3303,19 +3295,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>88</v>
+        <v>0.299</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.28403674945547</v>
+        <v>0.000971409574468</v>
       </c>
       <c r="L32" t="n">
-        <v>-14.5476179829953</v>
+        <v>-0.0299278032595263</v>
       </c>
       <c r="M32" t="n">
-        <v>8.13719448712088</v>
+        <v>0.0156789945506381</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.45913266983576</v>
+        <v>0.324886145307052</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3363,11 +3355,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3378,31 +3370,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5</v>
+        <v>0.393807883351103</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.063</v>
+        <v>85.81999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0336987811634349</v>
+        <v>-0.543029505946935</v>
       </c>
       <c r="L33" t="n">
-        <v>-1.7107720362883</v>
+        <v>-3.1214322142445</v>
       </c>
       <c r="M33" t="n">
-        <v>0.981049459737056</v>
+        <v>1.53797773408981</v>
       </c>
       <c r="N33" t="n">
-        <v>1.10018874186859</v>
+        <v>-0.632754026971493</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3450,7 +3442,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3465,7 +3457,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.377227088747045</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3477,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.282</v>
+        <v>3.5145</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0071524701607586</v>
+        <v>0.114445</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0391800081165123</v>
+        <v>-0.164055538889663</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0189871892273215</v>
+        <v>0.385362222317566</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.53633693643922</v>
+        <v>3.2563664817186</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3528,180 +3520,6 @@
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Manawatu at d/s PNCC STP</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>10</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.326711047377659</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>88.23</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-0.521785714285716</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-3.00746305360083</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.53797773408981</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-0.591392626414729</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>1819264.388</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5525304.917</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Mana_11a</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Manawatu at d/s PNCC STP</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>10</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0.377227088747045</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-0.0569256392755226</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-0.444483708892048</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.262214050480138</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-1.68918810906595</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>1819264.388</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5525304.917</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Palmerston North City</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>Lower Manawatu</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>Mana_11a</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
+++ b/trend_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="63">
   <si>
     <t>site name</t>
   </si>
@@ -88,45 +88,45 @@
     <t>Manawatu at d/s PNCC STP</t>
   </si>
   <si>
+    <t>Visual Clarity</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
+    <t>Dissolved Reactive Phosphorus</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Ammoniacal Nitrogen (NH4)</t>
+  </si>
+  <si>
+    <t>Nitrite Nitrogen (NO2)</t>
+  </si>
+  <si>
+    <t>Nitrate Nitrogen (NO3)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>SIN (Soluble Inorganic nitrogen)</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
-    <t>Visual Clarity</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen Concentration</t>
-  </si>
-  <si>
-    <t>Dissolved Reactive Phosphorus</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>Ammoniacal Nitrogen (NH4)</t>
-  </si>
-  <si>
-    <t>Nitrite Nitrogen (NO2)</t>
-  </si>
-  <si>
-    <t>Nitrate Nitrogen (NO3)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>SIN (Soluble Inorganic nitrogen)</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
     <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
   </si>
   <si>
@@ -139,39 +139,42 @@
     <t>ok</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>Palmerston North City</t>
   </si>
   <si>
@@ -184,22 +187,22 @@
     <t>Mana_11a</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>g/m3</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
+  </si>
+  <si>
     <t>mg/m2</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>g/m3</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>E. coli/100 mL</t>
-  </si>
-  <si>
-    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,38 +654,38 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.76743810558989</v>
+        <v>0.20163199527868</v>
       </c>
       <c r="G2">
-        <v>0.037037037037037</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H2">
-        <v>0.851851851851852</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>0.25</v>
       </c>
       <c r="K2">
-        <v>-3.69188005390836</v>
+        <v>-0.0232150423728814</v>
       </c>
       <c r="L2">
-        <v>-27.4017434292225</v>
+        <v>-0.100915361116815</v>
       </c>
       <c r="M2">
-        <v>11.7224475917984</v>
+        <v>0.0183185182417646</v>
       </c>
       <c r="N2">
-        <v>-4.61485006738544</v>
+        <v>-9.28601694915254</v>
       </c>
       <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
-        <v>43</v>
-      </c>
       <c r="Q2">
         <v>1819264.388</v>
       </c>
@@ -690,19 +693,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -716,43 +719,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.027215799126902</v>
+        <v>0.529383796942125</v>
       </c>
       <c r="G3">
-        <v>0.0217391304347826</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.804347826086957</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.31</v>
+        <v>10.31</v>
       </c>
       <c r="K3">
-        <v>-0.0745408163265306</v>
+        <v>0.0158877060439562</v>
       </c>
       <c r="L3">
-        <v>-0.193255669215997</v>
+        <v>-0.08157376782910621</v>
       </c>
       <c r="M3">
-        <v>-0.0068817263723528</v>
+        <v>0.095017196910199</v>
       </c>
       <c r="N3">
-        <v>-24.0454246214615</v>
+        <v>0.154099961629061</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3">
         <v>1819264.388</v>
@@ -761,19 +764,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -787,43 +790,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.229886323274283</v>
+        <v>0.0526849775313125</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.913793103448276</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.205</v>
+        <v>0.024</v>
       </c>
       <c r="K4">
-        <v>-0.063532076945611</v>
+        <v>0.001503086419753</v>
       </c>
       <c r="L4">
-        <v>-0.14093682344013</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0468558396653261</v>
+        <v>0.0030161023947151</v>
       </c>
       <c r="N4">
-        <v>-0.622558323817844</v>
+        <v>6.26286008230453</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4">
         <v>1819264.388</v>
@@ -832,19 +835,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,37 +867,37 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0512557359076358</v>
+        <v>0.997580855512017</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H5">
-        <v>0.551724137931034</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>0.0225</v>
+        <v>332.8</v>
       </c>
       <c r="K5">
-        <v>0.0014595404595404</v>
+        <v>-78.2678571428571</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-136.545076934595</v>
       </c>
       <c r="M5">
-        <v>0.0028947225729895</v>
+        <v>-32.6677128420037</v>
       </c>
       <c r="N5">
-        <v>6.48684648684648</v>
+        <v>-23.5179859203297</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1819264.388</v>
@@ -903,19 +906,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -929,44 +932,44 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.755207548230012</v>
+        <v>0.152036016958434</v>
       </c>
       <c r="G6">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.931034482758621</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>400</v>
+        <v>0.147641045460651</v>
       </c>
       <c r="K6">
-        <v>-20.6745283018868</v>
+        <v>0.0121349966668371</v>
       </c>
       <c r="L6">
-        <v>-80.95529600041679</v>
+        <v>-0.0137291019970156</v>
       </c>
       <c r="M6">
-        <v>41.1303679799655</v>
+        <v>0.0347875767017278</v>
       </c>
       <c r="N6">
-        <v>-5.1686320754717</v>
+        <v>8.21925679879536</v>
       </c>
       <c r="O6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" t="s">
         <v>42</v>
       </c>
-      <c r="P6" t="s">
-        <v>43</v>
-      </c>
       <c r="Q6">
         <v>1819264.388</v>
       </c>
@@ -974,19 +977,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1000,43 +1003,43 @@
         <v>5</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>40</v>
       </c>
       <c r="F7">
-        <v>0.963312929138062</v>
+        <v>0.999668964301007</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.159416300451701</v>
+        <v>0.008</v>
       </c>
       <c r="K7">
-        <v>-0.0204001581260582</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="L7">
-        <v>-0.0405133473198566</v>
+        <v>-0.0014920920442377</v>
       </c>
       <c r="M7">
-        <v>-0.0006417938648297</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="N7">
-        <v>-12.7967830568486</v>
+        <v>-12.5429258241758</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1819264.388</v>
@@ -1045,16 +1048,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
         <v>59</v>
@@ -1077,37 +1080,37 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.971450263277998</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.413793103448276</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.008999999999999999</v>
+        <v>0.3105</v>
       </c>
       <c r="K8">
-        <v>-0.0007442214554158</v>
+        <v>-0.0007454081632653</v>
       </c>
       <c r="L8">
-        <v>-0.0010193101533248</v>
+        <v>-0.0160145019837398</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0337750384289677</v>
       </c>
       <c r="N8">
-        <v>-8.26912728239849</v>
+        <v>-0.240067041309278</v>
       </c>
       <c r="O8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1819264.388</v>
@@ -1116,16 +1119,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
         <v>59</v>
@@ -1142,43 +1145,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.007491446845039</v>
+        <v>0.996364831649296</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.982758620689655</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.364</v>
+        <v>7.77</v>
       </c>
       <c r="K9">
-        <v>0.0498228905023548</v>
+        <v>0.0621173469387755</v>
       </c>
       <c r="L9">
-        <v>0.0205446278780751</v>
+        <v>0.0264563182202276</v>
       </c>
       <c r="M9">
-        <v>0.066283277609322</v>
+        <v>0.10346166439713</v>
       </c>
       <c r="N9">
-        <v>13.6876072808667</v>
+        <v>0.799451054553096</v>
       </c>
       <c r="O9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1819264.388</v>
@@ -1187,19 +1190,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1213,43 +1213,43 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.232248729237568</v>
+        <v>0.770113676725717</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.793103448275862</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.725</v>
+        <v>0.634</v>
       </c>
       <c r="K10">
-        <v>-0.0163058035714287</v>
+        <v>-0.0071721035731784</v>
       </c>
       <c r="L10">
-        <v>-0.0483635342490734</v>
+        <v>-0.039453736405301</v>
       </c>
       <c r="M10">
-        <v>0.0200686813186809</v>
+        <v>0.0180670857905014</v>
       </c>
       <c r="N10">
-        <v>-0.21107836338419</v>
+        <v>-1.13124662037515</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1819264.388</v>
@@ -1258,16 +1258,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,31 +1296,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.931034482758621</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6885</v>
+        <v>0.93</v>
       </c>
       <c r="K11">
-        <v>-0.008917310284055501</v>
+        <v>-0.0070683494346752</v>
       </c>
       <c r="L11">
-        <v>-0.0461109137939611</v>
+        <v>-0.0508017781912165</v>
       </c>
       <c r="M11">
-        <v>0.0160953417815264</v>
+        <v>0.0213288311077076</v>
       </c>
       <c r="N11">
-        <v>-1.29517941671105</v>
+        <v>-0.760037573620999</v>
       </c>
       <c r="O11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q11">
         <v>1819264.388</v>
@@ -1326,16 +1329,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
         <v>58</v>
@@ -1352,43 +1355,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.229886323274283</v>
+        <v>0.847773391133448</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.793103448275862</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.925</v>
+        <v>0.061</v>
       </c>
       <c r="K12">
-        <v>0.028429383042483</v>
+        <v>-0.0035495626822157</v>
       </c>
       <c r="L12">
-        <v>-0.0204887312483568</v>
+        <v>-0.0103145786281276</v>
       </c>
       <c r="M12">
-        <v>0.0804669338474672</v>
+        <v>0.0018318561050917</v>
       </c>
       <c r="N12">
-        <v>3.07344681540357</v>
+        <v>-5.81895521674712</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q12">
         <v>1819264.388</v>
@@ -1397,16 +1400,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
         <v>58</v>
@@ -1423,44 +1426,44 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0930677555442502</v>
+        <v>0.253508774251516</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.793103448275862</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.064</v>
+        <v>6.51</v>
       </c>
       <c r="K13">
-        <v>0.0048059210526315</v>
+        <v>0.147634437930491</v>
       </c>
       <c r="L13">
-        <v>-0.001034700169688</v>
+        <v>-0.450899523835833</v>
       </c>
       <c r="M13">
-        <v>0.0126676111033566</v>
+        <v>1.34586819286087</v>
       </c>
       <c r="N13">
-        <v>7.50925164473684</v>
+        <v>2.26781010645915</v>
       </c>
       <c r="O13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s">
         <v>42</v>
       </c>
-      <c r="P13" t="s">
-        <v>46</v>
-      </c>
       <c r="Q13">
         <v>1819264.388</v>
       </c>
@@ -1468,19 +1471,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1491,47 +1494,47 @@
         <v>36</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>0.184178227959983</v>
+      </c>
+      <c r="G14">
+        <v>0.0166666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <v>0.007491446845039</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0.948275862068966</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
-        <v>7.815</v>
+        <v>41.75</v>
       </c>
       <c r="K14">
-        <v>1.88914038986491</v>
+        <v>1.4533804794966</v>
       </c>
       <c r="L14">
-        <v>0.387936629970858</v>
+        <v>-1.10288229575718</v>
       </c>
       <c r="M14">
-        <v>4.96910589230823</v>
+        <v>7.51199320211357</v>
       </c>
       <c r="N14">
-        <v>24.173261546576</v>
+        <v>3.48115084909366</v>
       </c>
       <c r="O14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s">
         <v>42</v>
       </c>
-      <c r="P14" t="s">
-        <v>48</v>
-      </c>
       <c r="Q14">
         <v>1819264.388</v>
       </c>
@@ -1539,19 +1542,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1571,34 +1574,34 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.149672001113836</v>
+        <v>0.000652415591453</v>
       </c>
       <c r="G15">
-        <v>0.0147058823529412</v>
+        <v>0.0204081632653061</v>
       </c>
       <c r="H15">
-        <v>0.823529411764706</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>41.75</v>
+        <v>0.395</v>
       </c>
       <c r="K15">
-        <v>1.62714621506022</v>
+        <v>-0.0652232142857143</v>
       </c>
       <c r="L15">
-        <v>-0.662252030060468</v>
+        <v>-0.114889718575446</v>
       </c>
       <c r="M15">
-        <v>6.95728151546622</v>
+        <v>-0.0278346848154622</v>
       </c>
       <c r="N15">
-        <v>3.89735620373704</v>
+        <v>-16.5122061482821</v>
       </c>
       <c r="O15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P15" t="s">
         <v>49</v>
@@ -1610,19 +1613,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1636,43 +1639,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.000668197026762</v>
+        <v>0.395683674669228</v>
       </c>
       <c r="G16">
-        <v>0.0380952380952381</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.657142857142857</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.47</v>
+        <v>10.24</v>
       </c>
       <c r="K16">
-        <v>-0.0724322955622039</v>
+        <v>-0.0028590998043052</v>
       </c>
       <c r="L16">
-        <v>-0.118774821585707</v>
+        <v>-0.0329903370807126</v>
       </c>
       <c r="M16">
-        <v>-0.0313348199035244</v>
+        <v>0.0278060029046299</v>
       </c>
       <c r="N16">
-        <v>-15.4111267153625</v>
+        <v>-0.0279208965264182</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q16">
         <v>1819264.388</v>
@@ -1681,19 +1684,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1707,44 +1710,44 @@
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.316860036138082</v>
+        <v>0.228191666748841</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.813559322033898</v>
+        <v>0.38135593220339</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.18</v>
+        <v>0.023</v>
       </c>
       <c r="K17">
-        <v>-0.0062038800240853</v>
+        <v>0.0002438251001335</v>
       </c>
       <c r="L17">
-        <v>-0.0454151751069502</v>
+        <v>-0.0003431053017174</v>
       </c>
       <c r="M17">
-        <v>0.0224233254903332</v>
+        <v>0.0008696428571428</v>
       </c>
       <c r="N17">
-        <v>-0.0609418469949447</v>
+        <v>1.06010913101527</v>
       </c>
       <c r="O17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
         <v>42</v>
       </c>
-      <c r="P17" t="s">
-        <v>45</v>
-      </c>
       <c r="Q17">
         <v>1819264.388</v>
       </c>
@@ -1752,19 +1755,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,37 +1787,37 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.153452181880059</v>
+        <v>0.454048427987514</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0341880341880342</v>
       </c>
       <c r="H18">
-        <v>0.406779661016949</v>
+        <v>0.803418803418803</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>0.023</v>
+        <v>280</v>
       </c>
       <c r="K18">
-        <v>0.000366594178655</v>
+        <v>0.492677308229467</v>
       </c>
       <c r="L18">
-        <v>-0.0002517478416266</v>
+        <v>-10.7381529630451</v>
       </c>
       <c r="M18">
-        <v>0.0010227678874832</v>
+        <v>17.5169102730355</v>
       </c>
       <c r="N18">
-        <v>1.59388773328291</v>
+        <v>0.175956181510524</v>
       </c>
       <c r="O18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q18">
         <v>1819264.388</v>
@@ -1823,19 +1826,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1849,40 +1852,40 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0214979684495106</v>
+        <v>0.06682449122159261</v>
       </c>
       <c r="G19">
-        <v>0.0256410256410256</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.7692307692307691</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>302</v>
+        <v>0.135695579494067</v>
       </c>
       <c r="K19">
-        <v>21.2221762714473</v>
+        <v>0.0055821036188419</v>
       </c>
       <c r="L19">
-        <v>2.89257621099986</v>
+        <v>-0.0005666327975564</v>
       </c>
       <c r="M19">
-        <v>44.5970695970696</v>
+        <v>0.010977327977003</v>
       </c>
       <c r="N19">
-        <v>7.02721068590969</v>
+        <v>4.11369599485444</v>
       </c>
       <c r="O19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
         <v>44</v>
@@ -1894,19 +1897,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,37 +1929,37 @@
         <v>40</v>
       </c>
       <c r="F20">
-        <v>0.27616017507285</v>
+        <v>0.999792841248739</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.271186440677966</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.120891597430493</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K20">
-        <v>0.0012593723156451</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="L20">
-        <v>-0.0032183189814924</v>
+        <v>-0.0007525755494505</v>
       </c>
       <c r="M20">
-        <v>0.0064336544861718</v>
+        <v>-0.0002504092936933</v>
       </c>
       <c r="N20">
-        <v>1.04173684723558</v>
+        <v>-5.54796081111871</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q20">
         <v>1819264.388</v>
@@ -1965,16 +1968,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
         <v>59</v>
@@ -1997,37 +2000,37 @@
         <v>40</v>
       </c>
       <c r="F21">
-        <v>0.869373349546922</v>
+        <v>0.952026335382588</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.279661016949153</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.008999999999999999</v>
+        <v>0.407</v>
       </c>
       <c r="K21">
-        <v>-0.0001664392477041</v>
+        <v>-0.007901385973049501</v>
       </c>
       <c r="L21">
-        <v>-0.0004796983534588</v>
+        <v>-0.0165420555008572</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0004390546050606</v>
       </c>
       <c r="N21">
-        <v>-1.84932497449031</v>
+        <v>-1.94137247495074</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1819264.388</v>
@@ -2036,16 +2039,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W21" t="s">
         <v>59</v>
@@ -2062,43 +2065,43 @@
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.457923521470797</v>
+        <v>0.993172484504581</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.974576271186441</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4225</v>
+        <v>7.715</v>
       </c>
       <c r="K22">
-        <v>0.0005975408775709999</v>
+        <v>0.0194919950738916</v>
       </c>
       <c r="L22">
-        <v>-0.0076908014146416</v>
+        <v>0.0067768402737009</v>
       </c>
       <c r="M22">
-        <v>0.009747321261131699</v>
+        <v>0.0328683914510686</v>
       </c>
       <c r="N22">
-        <v>0.141429793507934</v>
+        <v>0.252650616641499</v>
       </c>
       <c r="O22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1819264.388</v>
@@ -2107,19 +2110,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>55</v>
-      </c>
-      <c r="W22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2133,40 +2133,40 @@
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.465695962789601</v>
+        <v>0.902316638485571</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.559322033898305</v>
+        <v>0.855932203389831</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.685</v>
+        <v>0.679</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-0.0067080670648041</v>
       </c>
       <c r="L23">
-        <v>-0.012482911825017</v>
+        <v>-0.0211577617880884</v>
       </c>
       <c r="M23">
-        <v>0.0100803757152174</v>
+        <v>0.0018550669560898</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>-0.987933293785595</v>
       </c>
       <c r="O23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P23" t="s">
         <v>51</v>
@@ -2178,16 +2178,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,37 +2210,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.254419832160069</v>
+        <v>0.521067594927293</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.855932203389831</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.679</v>
+        <v>0.945</v>
       </c>
       <c r="K24">
-        <v>0.0066059409340659</v>
+        <v>-0.0019460730026596</v>
       </c>
       <c r="L24">
-        <v>-0.0080134484138185</v>
+        <v>-0.0132995505223989</v>
       </c>
       <c r="M24">
-        <v>0.0151362241675709</v>
+        <v>0.0124829118250171</v>
       </c>
       <c r="N24">
-        <v>0.972892626519284</v>
+        <v>-0.205933651075095</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1819264.388</v>
@@ -2246,16 +2249,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W24" t="s">
         <v>58</v>
@@ -2272,43 +2275,43 @@
         <v>10</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.0362211251010959</v>
+        <v>0.366170168165694</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.669491525423729</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.951</v>
+        <v>0.061</v>
       </c>
       <c r="K25">
-        <v>0.0149319023787859</v>
+        <v>0.0003181620209059</v>
       </c>
       <c r="L25">
-        <v>0.0025069893219047</v>
+        <v>-0.0012422571285565</v>
       </c>
       <c r="M25">
-        <v>0.0250858516483517</v>
+        <v>0.0021677864019093</v>
       </c>
       <c r="N25">
-        <v>1.57012643310052</v>
+        <v>0.521577083452334</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1819264.388</v>
@@ -2317,16 +2320,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
         <v>58</v>
@@ -2343,40 +2346,40 @@
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.0142061777115826</v>
+        <v>0.084773140791588</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.6610169491525421</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.062</v>
+        <v>6.57</v>
       </c>
       <c r="K26">
-        <v>0.0023717532467532</v>
+        <v>0.147634437930491</v>
       </c>
       <c r="L26">
-        <v>0.0005580001014496</v>
+        <v>-0.0394695973267032</v>
       </c>
       <c r="M26">
-        <v>0.004565625</v>
+        <v>0.68134915726703</v>
       </c>
       <c r="N26">
-        <v>3.82540846250524</v>
+        <v>2.24709951187961</v>
       </c>
       <c r="O26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P26" t="s">
         <v>44</v>
@@ -2388,19 +2391,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,7 +2414,7 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2420,37 +2423,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.00129983500763</v>
+        <v>0.0170046230668186</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.0087719298245614</v>
       </c>
       <c r="H27">
-        <v>0.957627118644068</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>6.55</v>
+        <v>28</v>
       </c>
       <c r="K27">
-        <v>0.615020015418892</v>
+        <v>0.856028639890461</v>
       </c>
       <c r="L27">
-        <v>0.1008233072623</v>
+        <v>0.0413889345814622</v>
       </c>
       <c r="M27">
-        <v>1.67540548756156</v>
+        <v>3.29619790285859</v>
       </c>
       <c r="N27">
-        <v>9.38961855601362</v>
+        <v>3.05724514246593</v>
       </c>
       <c r="O27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>1819264.388</v>
@@ -2459,19 +2462,19 @@
         <v>5525304.917</v>
       </c>
       <c r="S27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2479,49 +2482,49 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28">
-        <v>0.0086270088930403</v>
-      </c>
-      <c r="G28">
-        <v>0.0082644628099173</v>
-      </c>
-      <c r="H28">
-        <v>0.768595041322314</v>
-      </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>24.5</v>
+        <v>0.229</v>
       </c>
       <c r="K28">
-        <v>1.04190438156093</v>
+        <v>-0.0160247764490412</v>
       </c>
       <c r="L28">
-        <v>0.0996679322467182</v>
+        <v>-0.184012379454214</v>
       </c>
       <c r="M28">
-        <v>3.93017759452912</v>
+        <v>0.0795742630136634</v>
       </c>
       <c r="N28">
-        <v>4.25267094514666</v>
+        <v>-6.99771897338042</v>
       </c>
       <c r="O28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>1819264.388</v>
@@ -2530,18 +2533,15 @@
         <v>5525304.917</v>
       </c>
       <c r="S28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
-      </c>
-      <c r="W28" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -2562,7 +2562,7 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2574,26 +2574,26 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.328</v>
+        <v>83.64</v>
       </c>
       <c r="K29">
-        <v>-0.0055223284945507</v>
+        <v>-5.41400645673782</v>
       </c>
       <c r="L29">
-        <v>-0.147782138340038</v>
+        <v>-16.081382897888</v>
       </c>
       <c r="M29">
-        <v>0.0795742630136634</v>
+        <v>2.90249351609011</v>
       </c>
       <c r="N29">
-        <v>-1.68363673614351</v>
+        <v>-6.47298715535368</v>
       </c>
       <c r="O29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" t="s">
         <v>42</v>
       </c>
-      <c r="P29" t="s">
-        <v>50</v>
-      </c>
       <c r="Q29">
         <v>1819264.388</v>
       </c>
@@ -2601,16 +2601,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2618,7 +2618,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2630,7 +2630,7 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2642,25 +2642,25 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>83.64</v>
+        <v>3.063</v>
       </c>
       <c r="K30">
-        <v>-0.397815955632363</v>
+        <v>-0.175114405111075</v>
       </c>
       <c r="L30">
-        <v>-15.6995197460117</v>
+        <v>-2.38450377819739</v>
       </c>
       <c r="M30">
-        <v>9.73421210558188</v>
+        <v>1.22061532207977</v>
       </c>
       <c r="N30">
-        <v>-0.475628832654666</v>
+        <v>-5.71708798926134</v>
       </c>
       <c r="O30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q30">
         <v>1819264.388</v>
@@ -2669,16 +2669,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2686,10 +2686,10 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.5</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>4.6</v>
+        <v>0.2665</v>
       </c>
       <c r="K31">
-        <v>0.143945159764258</v>
+        <v>-0.009534856125778699</v>
       </c>
       <c r="L31">
-        <v>-1.7107720362883</v>
+        <v>-0.0375790927090187</v>
       </c>
       <c r="M31">
-        <v>1.22061532207977</v>
+        <v>0.0135557264113059</v>
       </c>
       <c r="N31">
-        <v>3.12924260357083</v>
+        <v>-3.57780717665242</v>
       </c>
       <c r="O31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q31">
         <v>1819264.388</v>
@@ -2737,16 +2737,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2754,7 +2754,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -2766,38 +2766,38 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>0.264799404212504</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.299</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="K32">
-        <v>0.000971409574468</v>
+        <v>-0.855052672649239</v>
       </c>
       <c r="L32">
-        <v>-0.0299278032595263</v>
+        <v>-5.62259612819204</v>
       </c>
       <c r="M32">
-        <v>0.0156789945506381</v>
+        <v>0.865420748484454</v>
       </c>
       <c r="N32">
-        <v>0.324886145307052</v>
+        <v>-1.03869372284893</v>
       </c>
       <c r="O32" t="s">
+        <v>41</v>
+      </c>
+      <c r="P32" t="s">
         <v>42</v>
       </c>
-      <c r="P32" t="s">
-        <v>50</v>
-      </c>
       <c r="Q32">
         <v>1819264.388</v>
       </c>
@@ -2805,16 +2805,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2822,7 +2822,7 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -2834,37 +2834,37 @@
         <v>40</v>
       </c>
       <c r="F33">
-        <v>0.393807883351103</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>85.81999999999999</v>
+        <v>3.2165</v>
       </c>
       <c r="K33">
-        <v>-0.543029505946935</v>
+        <v>-0.0668038408779149</v>
       </c>
       <c r="L33">
-        <v>-3.1214322142445</v>
+        <v>-0.5108538061660139</v>
       </c>
       <c r="M33">
-        <v>1.53797773408981</v>
+        <v>0.351954264865287</v>
       </c>
       <c r="N33">
-        <v>-0.632754026971493</v>
+        <v>-2.07691095532147</v>
       </c>
       <c r="O33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q33">
         <v>1819264.388</v>
@@ -2873,84 +2873,16 @@
         <v>5525304.917</v>
       </c>
       <c r="S33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34">
-        <v>0.570986171506239</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>3.5145</v>
-      </c>
-      <c r="K34">
-        <v>0.114445</v>
-      </c>
-      <c r="L34">
-        <v>-0.164055538889663</v>
-      </c>
-      <c r="M34">
-        <v>0.385362222317566</v>
-      </c>
-      <c r="N34">
-        <v>3.2563664817186</v>
-      </c>
-      <c r="O34" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q34">
-        <v>1819264.388</v>
-      </c>
-      <c r="R34">
-        <v>5525304.917</v>
-      </c>
-      <c r="S34" t="s">
-        <v>52</v>
-      </c>
-      <c r="T34" t="s">
-        <v>53</v>
-      </c>
-      <c r="U34" t="s">
-        <v>54</v>
-      </c>
-      <c r="V34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
